--- a/Files/任务时间表.xlsx
+++ b/Files/任务时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philip\Notes\技术笔记\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DD2BC3-90EB-4BBF-A53F-54C9BB88394D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA777F79-4502-4E6C-B93B-6382DD7A773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Mon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,137 @@
   </si>
   <si>
     <t>投三家中国公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第四节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第五节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第六节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第七节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第八节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预习第四节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找王老师聊科研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研信息搜集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力扣x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡公司调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读VGGT论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC联机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国企调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预习第五节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新加坡公司x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国企x5，私企x5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读VGGT论文</t>
+  </si>
+  <si>
+    <t>预习第六节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对极几何总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第九节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第十节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第十一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第十二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL第十三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成计网笔记第一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成RL笔记第一部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出10个3DR难题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,15 +328,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -238,6 +360,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="幼圆"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF0ECE0"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -310,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -409,110 +539,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,6 +674,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF0ECE0"/>
+      <color rgb="FFECE1CA"/>
+      <color rgb="FFF8F4EC"/>
       <color rgb="FFEAE6E9"/>
       <color rgb="FFCDC1CA"/>
       <color rgb="FF302C46"/>
@@ -530,9 +684,6 @@
       <color rgb="FF8A9BA2"/>
       <color rgb="FF063A80"/>
       <color rgb="FFF3FAFF"/>
-      <color rgb="FFEDECEB"/>
-      <color rgb="FFE7D9E4"/>
-      <color rgb="FFD9D8D5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -811,22 +962,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" style="13" customWidth="1"/>
     <col min="2" max="7" width="22.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="15" customWidth="1"/>
     <col min="9" max="68" width="22.77734375" style="1" customWidth="1"/>
     <col min="69" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="10" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
+      <c r="A1" s="37"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,7 +996,7 @@
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -905,17 +1056,33 @@
       <c r="AA1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
+      <c r="AD1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
       <c r="AM1" s="11"/>
@@ -936,7 +1103,7 @@
       <c r="BB1" s="11"/>
     </row>
     <row r="2" spans="1:54" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
+      <c r="A2" s="37"/>
       <c r="B2" s="3">
         <v>45824</v>
       </c>
@@ -955,7 +1122,7 @@
       <c r="G2" s="8">
         <v>45829</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <v>45830</v>
       </c>
       <c r="I2" s="3">
@@ -1015,242 +1182,458 @@
       <c r="AA2" s="7">
         <v>45849</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="29">
         <v>45850</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="30">
         <v>45851</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" s="22" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="AD2" s="3">
+        <v>45852</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>45853</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>45854</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>45855</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>45856</v>
+      </c>
+      <c r="AI2" s="29">
+        <v>45857</v>
+      </c>
+      <c r="AJ2" s="30">
+        <v>45858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="21" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
         <v>0.25</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="L3" s="24"/>
-    </row>
-    <row r="4" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="H3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="W3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="24"/>
       <c r="T4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="U4" s="36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="W4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF4" s="36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="39"/>
+      <c r="E5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="H5" s="24"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="AF5" s="34"/>
+    </row>
+    <row r="6" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
         <v>0.375</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="39"/>
+      <c r="E6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="T6" s="30" t="s">
+      <c r="H6" s="24"/>
+      <c r="T6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="U6" s="34"/>
+      <c r="W6" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="X6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF6" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="39"/>
+      <c r="E7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="K7" s="30" t="s">
+      <c r="H7" s="24"/>
+      <c r="K7" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+    </row>
+    <row r="8" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="E8" s="31"/>
-      <c r="H8" s="25"/>
-      <c r="K8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="31"/>
-    </row>
-    <row r="9" spans="1:54" s="26" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="B8" s="40"/>
+      <c r="E8" s="35"/>
+      <c r="H8" s="24"/>
+      <c r="K8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+    </row>
+    <row r="9" spans="1:54" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>0.5</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="K9" s="30"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:54" s="24" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="H9" s="26"/>
+      <c r="K9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+    </row>
+    <row r="10" spans="1:54" s="23" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="H10" s="27"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="28"/>
+      <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="K11" s="30"/>
-      <c r="T11" s="21" t="s">
+      <c r="H11" s="24"/>
+      <c r="K11" s="34"/>
+      <c r="T11" s="20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="W11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
         <v>0.625</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="K12" s="30"/>
-      <c r="T12" s="30" t="s">
+      <c r="H12" s="24"/>
+      <c r="K12" s="34"/>
+      <c r="T12" s="34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="W12" s="34"/>
+      <c r="X12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="39"/>
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="H13" s="25"/>
-      <c r="K13" s="30"/>
-      <c r="T13" s="30"/>
-    </row>
-    <row r="14" spans="1:54" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="E13" s="34"/>
+      <c r="H13" s="24"/>
+      <c r="K13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="W13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13" s="34"/>
+    </row>
+    <row r="14" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <v>0.70833333333333304</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="K14" s="30"/>
-      <c r="T14" s="21" t="s">
+      <c r="H14" s="24"/>
+      <c r="K14" s="34"/>
+      <c r="T14" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" s="26" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="W14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>0.75</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:54" s="24" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="H15" s="26"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:54" s="23" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
         <v>0.79166666666666696</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="H16" s="27"/>
+      <c r="K16" s="34"/>
+      <c r="W16" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>0.83333333333333304</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="K17" s="30"/>
+      <c r="H17" s="24"/>
+      <c r="K17" s="34"/>
       <c r="T17" s="36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE17" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>0.875</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="K18" s="30"/>
-      <c r="T18" s="30"/>
-    </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="H18" s="24"/>
+      <c r="K18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="W18" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="X18" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE18" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
         <v>0.91666666666666696</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="K19" s="30"/>
-      <c r="T19" s="21" t="s">
+      <c r="H19" s="24"/>
+      <c r="K19" s="34"/>
+      <c r="T19" s="20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" s="2" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="W19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="32" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="31">
+    <mergeCell ref="AF4:AF5"/>
+    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE6:AE9"/>
+    <mergeCell ref="AF6:AF9"/>
+    <mergeCell ref="AG6:AG9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="T12:T13"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Z6:Z9"/>
+    <mergeCell ref="AA6:AA9"/>
     <mergeCell ref="K7:K19"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="X16:X17"/>
+    <mergeCell ref="Z11:Z12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Files/任务时间表.xlsx
+++ b/Files/任务时间表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philip\Notes\技术笔记\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA777F79-4502-4E6C-B93B-6382DD7A773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7132017E-4F43-4B92-928F-863E6D6EEDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>Mon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,30 @@
   </si>
   <si>
     <t>找出10个3DR难题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北理工重庆研究院面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理RL第一部分笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读GS-SLAM论文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习用CMake编译</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,10 +669,10 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,8 +987,8 @@
   <dimension ref="A1:BB23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
+      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1083,20 +1107,48 @@
       <c r="AJ1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
+      <c r="AK1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ1" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AY1" s="11"/>
       <c r="AZ1" s="11"/>
       <c r="BA1" s="11"/>
@@ -1209,6 +1261,48 @@
       <c r="AJ2" s="30">
         <v>45858</v>
       </c>
+      <c r="AK2" s="3">
+        <v>45859</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>45860</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>45861</v>
+      </c>
+      <c r="AN2" s="6">
+        <v>45862</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>45863</v>
+      </c>
+      <c r="AP2" s="29">
+        <v>45864</v>
+      </c>
+      <c r="AQ2" s="30">
+        <v>45865</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>45866</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>45867</v>
+      </c>
+      <c r="AT2" s="5">
+        <v>45868</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>45869</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>45870</v>
+      </c>
+      <c r="AW2" s="29">
+        <v>45871</v>
+      </c>
+      <c r="AX2" s="30">
+        <v>45872</v>
+      </c>
     </row>
     <row r="3" spans="1:54" s="21" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -1286,12 +1380,12 @@
         <v>16</v>
       </c>
       <c r="H5" s="24"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="AF5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="AF5" s="35"/>
     </row>
     <row r="6" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -1302,39 +1396,42 @@
         <v>17</v>
       </c>
       <c r="H6" s="24"/>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="34"/>
-      <c r="W6" s="34" t="s">
+      <c r="U6" s="35"/>
+      <c r="W6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="34" t="s">
+      <c r="X6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Y6" s="34" t="s">
+      <c r="Y6" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="34" t="s">
+      <c r="Z6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="34" t="s">
+      <c r="AA6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="34" t="s">
+      <c r="AD6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="AE6" s="34" t="s">
+      <c r="AE6" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="AF6" s="34" t="s">
+      <c r="AF6" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AG6" s="34" t="s">
+      <c r="AG6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AH6" s="34" t="s">
+      <c r="AH6" s="35" t="s">
         <v>57</v>
+      </c>
+      <c r="AO6" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,64 +1439,66 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B7" s="39"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="24"/>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AO7" s="35"/>
     </row>
     <row r="8" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>0.45833333333333298</v>
       </c>
       <c r="B8" s="40"/>
-      <c r="E8" s="35"/>
+      <c r="E8" s="34"/>
       <c r="H8" s="24"/>
-      <c r="K8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="34"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AO8" s="34"/>
     </row>
     <row r="9" spans="1:54" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>0.5</v>
       </c>
       <c r="H9" s="26"/>
-      <c r="K9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
     </row>
     <row r="10" spans="1:54" s="23" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -1409,7 +1508,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -1423,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="24"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="35"/>
       <c r="T11" s="20" t="s">
         <v>22</v>
       </c>
@@ -1436,8 +1535,14 @@
       <c r="Y11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Z11" s="34" t="s">
+      <c r="Z11" s="35" t="s">
         <v>51</v>
+      </c>
+      <c r="AK11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN11" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,22 +1555,23 @@
       <c r="D12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="35" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="24"/>
-      <c r="K12" s="34"/>
-      <c r="T12" s="34" t="s">
+      <c r="K12" s="35"/>
+      <c r="T12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="W12" s="34"/>
+      <c r="W12" s="35"/>
       <c r="X12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Y12" s="34" t="s">
+      <c r="Y12" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="34"/>
+      <c r="Z12" s="35"/>
+      <c r="AK12" s="35"/>
     </row>
     <row r="13" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
@@ -1475,17 +1581,20 @@
       <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="34"/>
+      <c r="E13" s="35"/>
       <c r="H13" s="24"/>
-      <c r="K13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="T13" s="35"/>
       <c r="W13" s="20" t="s">
         <v>38</v>
       </c>
       <c r="X13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Y13" s="34"/>
+      <c r="Y13" s="35"/>
+      <c r="AK13" s="35" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:54" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -1498,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="24"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="T14" s="20" t="s">
         <v>24</v>
       </c>
@@ -1511,28 +1620,29 @@
       <c r="Y14" s="20" t="s">
         <v>49</v>
       </c>
+      <c r="AK14" s="34"/>
     </row>
     <row r="15" spans="1:54" s="25" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>0.75</v>
       </c>
       <c r="H15" s="26"/>
-      <c r="K15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="1:54" s="23" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>0.79166666666666696</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="K16" s="34"/>
-      <c r="W16" s="35" t="s">
+      <c r="K16" s="35"/>
+      <c r="W16" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="X16" s="35" t="s">
+      <c r="X16" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>0.83333333333333304</v>
       </c>
@@ -1540,26 +1650,29 @@
         <v>14</v>
       </c>
       <c r="H17" s="24"/>
-      <c r="K17" s="34"/>
+      <c r="K17" s="35"/>
       <c r="T17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="20" t="s">
         <v>50</v>
       </c>
       <c r="AE17" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>0.875</v>
       </c>
       <c r="H18" s="24"/>
-      <c r="K18" s="34"/>
-      <c r="T18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="T18" s="35"/>
       <c r="W18" s="20" t="s">
         <v>41</v>
       </c>
@@ -1572,13 +1685,14 @@
       <c r="AE18" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK18" s="35"/>
+    </row>
+    <row r="19" spans="1:37" s="20" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>0.91666666666666696</v>
       </c>
       <c r="H19" s="24"/>
-      <c r="K19" s="34"/>
+      <c r="K19" s="35"/>
       <c r="T19" s="20" t="s">
         <v>27</v>
       </c>
@@ -1588,42 +1702,50 @@
       <c r="X19" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" s="32" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" s="32" customFormat="1" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>0.95833333333333337</v>
       </c>
       <c r="H20" s="33"/>
     </row>
-    <row r="21" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="AO6:AO8"/>
+    <mergeCell ref="AK11:AK12"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AK17:AK18"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Y12:Y13"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Z6:Z9"/>
+    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="Z11:Z12"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AD6:AD9"/>
     <mergeCell ref="AE6:AE9"/>
     <mergeCell ref="AF6:AF9"/>
     <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="AH6:AH9"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Y12:Y13"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="T12:T13"/>
-    <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Z6:Z9"/>
-    <mergeCell ref="AA6:AA9"/>
     <mergeCell ref="K7:K19"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E12:E13"/>
@@ -1633,7 +1755,6 @@
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="X16:X17"/>
-    <mergeCell ref="Z11:Z12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
